--- a/doc/11. 小组进度日报/7.29.xlsx
+++ b/doc/11. 小组进度日报/7.29.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12245\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vue\SNS\SNS\doc\11. 小组进度日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF838454-6E2F-4842-9E5C-FCA0D97713AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828B53D5-6D29-49B7-9E0E-23F727C05E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="19380" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15945" yWindow="2700" windowWidth="20385" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="代码管理" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -352,22 +352,6 @@
     <t>◎</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t>后端出了很多bug，但前端</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>都已经帮助它解决了</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -377,12 +361,12 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
-    <numFmt numFmtId="183" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="184" formatCode="0.0000_ "/>
-    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="183" formatCode="0.0000_ "/>
+    <numFmt numFmtId="184" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -790,7 +774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -869,37 +853,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -908,32 +892,14 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -947,6 +913,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -956,20 +925,29 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1304,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA188"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1428,113 +1406,113 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="42" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="44" t="s">
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="50" t="s">
         <v>18</v>
       </c>
       <c r="AA4" s="35"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="47"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="41" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="41" t="s">
+      <c r="N5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="P5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="R5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="43" t="s">
+      <c r="S5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="46" t="s">
+      <c r="T5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46" t="s">
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="44"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="50"/>
       <c r="AA5" s="35"/>
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="10" t="s">
         <v>26</v>
       </c>
@@ -1544,17 +1522,17 @@
       <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="43"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="55"/>
       <c r="T6" s="8" t="s">
         <v>28</v>
       </c>
@@ -1573,7 +1551,7 @@
       <c r="Y6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="44"/>
+      <c r="Z6" s="50"/>
       <c r="AA6" s="35"/>
     </row>
     <row r="7" spans="1:27">
@@ -1588,17 +1566,18 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="15">
-        <v>1</v>
+        <f>E7</f>
+        <v>0.5</v>
       </c>
       <c r="G7" s="15">
         <v>0</v>
       </c>
       <c r="H7" s="15">
-        <f>IF(F7="","",F7+G7*10%)</f>
-        <v>1</v>
+        <f t="shared" ref="H7:H24" si="0">IF(F7="","",F7+G7*10%)</f>
+        <v>0.5</v>
       </c>
       <c r="I7" s="27" t="e">
         <f>IF([1]单体测试!AB7="","",Q7+#REF!+[2]詳細設計書レビュー!M8+[2]詳細設計書レビュー!Q8+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD7+[1]单体测试!O7)</f>
@@ -1614,7 +1593,7 @@
         <v>78</v>
       </c>
       <c r="M7" s="30" t="b">
-        <f>IF(J7="","",IF(J7&lt;=$B$2,IF(K7="",1),0))</f>
+        <f t="shared" ref="M7:M24" si="1">IF(J7="","",IF(J7&lt;=$B$2,IF(K7="",1),0))</f>
         <v>0</v>
       </c>
       <c r="N7" s="28">
@@ -1633,18 +1612,19 @@
         <v>78</v>
       </c>
       <c r="S7" s="30" t="b">
-        <f>IF(N7="","",IF($B$2&gt;=N7,IF(O7="",1),0))</f>
+        <f t="shared" ref="S7:S24" si="2">IF(N7="","",IF($B$2&gt;=N7,IF(O7="",1),0))</f>
         <v>0</v>
       </c>
       <c r="T7" s="34">
-        <v>1</v>
+        <f>E7</f>
+        <v>0.5</v>
       </c>
       <c r="U7" s="34">
         <v>0</v>
       </c>
       <c r="V7" s="15">
-        <f>IF(T7="","",T7+U7*10%)</f>
-        <v>1</v>
+        <f t="shared" ref="V7:V24" si="3">IF(T7="","",T7+U7*10%)</f>
+        <v>0.5</v>
       </c>
       <c r="W7" s="34"/>
       <c r="X7" s="34"/>
@@ -1667,17 +1647,18 @@
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F8" s="15">
-        <v>1</v>
+        <f t="shared" ref="F8:F24" si="4">E8</f>
+        <v>1.5</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
       </c>
       <c r="H8" s="15">
-        <f>IF(F8="","",F8+G8*10%)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="I8" s="27" t="e">
         <f>IF([1]单体测试!AB8="","",Q8+#REF!+[2]詳細設計書レビュー!M9+[2]詳細設計書レビュー!Q9+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD8+[1]单体测试!O8)</f>
@@ -1693,7 +1674,7 @@
         <v>78</v>
       </c>
       <c r="M8" s="30" t="b">
-        <f>IF(J8="","",IF(J8&lt;=$B$2,IF(K8="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="28">
@@ -1712,18 +1693,19 @@
         <v>78</v>
       </c>
       <c r="S8" s="30" t="b">
-        <f>IF(N8="","",IF($B$2&gt;=N8,IF(O8="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T8" s="34">
-        <v>1</v>
+        <f t="shared" ref="T8:T24" si="5">E8</f>
+        <v>1.5</v>
       </c>
       <c r="U8" s="34">
         <v>0</v>
       </c>
       <c r="V8" s="15">
-        <f>IF(T8="","",T8+U8*10%)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
@@ -1749,13 +1731,14 @@
         <v>1</v>
       </c>
       <c r="F9" s="15">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G9" s="15">
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f>IF(F9="","",F9+G9*10%)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I9" s="27" t="e">
@@ -1772,7 +1755,7 @@
         <v>78</v>
       </c>
       <c r="M9" s="30" t="b">
-        <f>IF(J9="","",IF(J9&lt;=$B$2,IF(K9="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="28">
@@ -1791,17 +1774,18 @@
         <v>78</v>
       </c>
       <c r="S9" s="30" t="b">
-        <f>IF(N9="","",IF($B$2&gt;=N9,IF(O9="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="34">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U9" s="34">
         <v>0</v>
       </c>
       <c r="V9" s="15">
-        <f>IF(T9="","",T9+U9*10%)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W9" s="34"/>
@@ -1825,17 +1809,18 @@
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F10" s="15">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1.2</v>
       </c>
       <c r="G10" s="15">
         <v>0</v>
       </c>
       <c r="H10" s="15">
-        <f>IF(F10="","",F10+G10*10%)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1.2</v>
       </c>
       <c r="I10" s="27" t="e">
         <f>IF([1]单体测试!AB11="","",Q10+#REF!+[2]詳細設計書レビュー!M12+[2]詳細設計書レビュー!Q12+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD11+[1]单体测试!O11)</f>
@@ -1851,7 +1836,7 @@
         <v>78</v>
       </c>
       <c r="M10" s="30" t="b">
-        <f>IF(J10="","",IF(J10&lt;=$B$2,IF(K10="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="28">
@@ -1870,18 +1855,19 @@
         <v>78</v>
       </c>
       <c r="S10" s="30" t="b">
-        <f>IF(N10="","",IF($B$2&gt;=N10,IF(O10="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T10" s="34">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1.2</v>
       </c>
       <c r="U10" s="34">
         <v>0</v>
       </c>
       <c r="V10" s="15">
-        <f>IF(T10="","",T10+U10*10%)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1.2</v>
       </c>
       <c r="W10" s="34"/>
       <c r="X10" s="34"/>
@@ -1904,17 +1890,18 @@
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F11" s="15">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2.5</v>
       </c>
       <c r="G11" s="15">
         <v>0</v>
       </c>
       <c r="H11" s="15">
-        <f>IF(F11="","",F11+G11*10%)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
       <c r="I11" s="27" t="e">
         <f>IF([1]单体测试!AB12="","",Q11+#REF!+[2]詳細設計書レビュー!M13+[2]詳細設計書レビュー!Q13+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD12+[1]单体测试!O12)</f>
@@ -1930,7 +1917,7 @@
         <v>78</v>
       </c>
       <c r="M11" s="30" t="b">
-        <f>IF(J11="","",IF(J11&lt;=$B$2,IF(K11="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="28">
@@ -1949,26 +1936,27 @@
         <v>78</v>
       </c>
       <c r="S11" s="30" t="b">
-        <f>IF(N11="","",IF($B$2&gt;=N11,IF(O11="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11" s="34">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2.5</v>
       </c>
       <c r="U11" s="34">
         <v>0</v>
       </c>
       <c r="V11" s="15">
-        <f>IF(T11="","",T11+U11*10%)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="W11" s="34">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="X11" s="34"/>
       <c r="Y11" s="36">
         <f>IF(W11="","",W11+X11*10%)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Z11" s="37"/>
       <c r="AA11" s="38"/>
@@ -1980,22 +1968,23 @@
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="39" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F12" s="15">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="G12" s="15">
         <v>0</v>
       </c>
       <c r="H12" s="15">
-        <f>IF(F12="","",F12+G12*10%)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I12" s="27" t="e">
         <f>IF([1]单体测试!AB13="","",Q12+#REF!+[2]詳細設計書レビュー!M14+[2]詳細設計書レビュー!Q14+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD13+[1]单体测试!O13)</f>
@@ -2011,7 +2000,7 @@
         <v>78</v>
       </c>
       <c r="M12" s="30" t="b">
-        <f>IF(J12="","",IF(J12&lt;=$B$2,IF(K12="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="28">
@@ -2024,25 +2013,26 @@
         <v>1</v>
       </c>
       <c r="Q12" s="32">
-        <f>IF(O12="",0,P12)</f>
+        <f t="shared" ref="Q12:Q24" si="6">IF(O12="",0,P12)</f>
         <v>1</v>
       </c>
       <c r="R12" s="29" t="s">
         <v>78</v>
       </c>
       <c r="S12" s="30" t="b">
-        <f>IF(N12="","",IF($B$2&gt;=N12,IF(O12="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12" s="34">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U12" s="34">
         <v>0</v>
       </c>
       <c r="V12" s="15">
-        <f>IF(T12="","",T12+U12*10%)</f>
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="W12" s="34"/>
       <c r="X12" s="34"/>
@@ -2057,22 +2047,23 @@
       <c r="B13" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="39" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="15">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G13" s="15">
         <v>0</v>
       </c>
       <c r="H13" s="15">
-        <f>IF(F13="","",F13+G13*10%)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="I13" s="27" t="e">
         <f>IF([1]单体测试!AB14="","",Q13+#REF!+[2]詳細設計書レビュー!M15+[2]詳細設計書レビュー!Q15+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD14+[1]单体测试!O14)</f>
@@ -2088,7 +2079,7 @@
         <v>78</v>
       </c>
       <c r="M13" s="30" t="b">
-        <f>IF(J13="","",IF(J13&lt;=$B$2,IF(K13="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="28">
@@ -2101,25 +2092,26 @@
         <v>1</v>
       </c>
       <c r="Q13" s="32">
-        <f>IF(O13="",0,P13)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R13" s="29" t="s">
         <v>78</v>
       </c>
       <c r="S13" s="30" t="b">
-        <f>IF(N13="","",IF($B$2&gt;=N13,IF(O13="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13" s="34">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="U13" s="34">
         <v>0</v>
       </c>
       <c r="V13" s="15">
-        <f>IF(T13="","",T13+U13*10%)</f>
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="W13" s="34"/>
       <c r="X13" s="34"/>
@@ -2134,22 +2126,23 @@
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="F14" s="15">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>1.5</v>
       </c>
       <c r="G14" s="15">
         <v>0</v>
       </c>
       <c r="H14" s="15">
-        <f>IF(F14="","",F14+G14*10%)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="I14" s="27" t="e">
         <f>IF([1]单体测试!AB15="","",Q14+#REF!+[2]詳細設計書レビュー!M16+[2]詳細設計書レビュー!Q16+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD15+[1]单体测试!O15)</f>
@@ -2165,7 +2158,7 @@
         <v>78</v>
       </c>
       <c r="M14" s="30" t="b">
-        <f>IF(J14="","",IF(J14&lt;=$B$2,IF(K14="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="28">
@@ -2178,25 +2171,26 @@
         <v>1</v>
       </c>
       <c r="Q14" s="32">
-        <f>IF(O14="",0,P14)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R14" s="29" t="s">
         <v>78</v>
       </c>
       <c r="S14" s="30" t="b">
-        <f>IF(N14="","",IF($B$2&gt;=N14,IF(O14="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T14" s="34">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.5</v>
       </c>
       <c r="U14" s="34">
         <v>0</v>
       </c>
       <c r="V14" s="15">
-        <f>IF(T14="","",T14+U14*10%)</f>
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="W14" s="34"/>
       <c r="X14" s="34"/>
@@ -2211,22 +2205,23 @@
       <c r="B15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="56"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="14">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="F15" s="15">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>1.8</v>
       </c>
       <c r="G15" s="15">
         <v>0</v>
       </c>
       <c r="H15" s="15">
-        <f>IF(F15="","",F15+G15*10%)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>1.8</v>
       </c>
       <c r="I15" s="27" t="e">
         <f>IF([1]单体测试!AB16="","",Q15+#REF!+[2]詳細設計書レビュー!M17+[2]詳細設計書レビュー!Q17+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD16+[1]单体测试!O16)</f>
@@ -2242,7 +2237,7 @@
         <v>78</v>
       </c>
       <c r="M15" s="30" t="b">
-        <f>IF(J15="","",IF(J15&lt;=$B$2,IF(K15="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="28">
@@ -2255,25 +2250,26 @@
         <v>1</v>
       </c>
       <c r="Q15" s="32">
-        <f>IF(O15="",0,P15)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R15" s="29" t="s">
         <v>78</v>
       </c>
       <c r="S15" s="30" t="b">
-        <f>IF(N15="","",IF($B$2&gt;=N15,IF(O15="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T15" s="34">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>1.8</v>
       </c>
       <c r="U15" s="34">
         <v>0</v>
       </c>
       <c r="V15" s="15">
-        <f>IF(T15="","",T15+U15*10%)</f>
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>1.8</v>
       </c>
       <c r="W15" s="34"/>
       <c r="X15" s="34"/>
@@ -2288,22 +2284,23 @@
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="39" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="14">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="15">
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="G16" s="15">
         <v>0</v>
       </c>
       <c r="H16" s="15">
-        <f>IF(F16="","",F16+G16*10%)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I16" s="27" t="e">
         <f>IF([1]单体测试!AB17="","",Q16+#REF!+[2]詳細設計書レビュー!M18+[2]詳細設計書レビュー!Q18+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD17+[1]单体测试!O17)</f>
@@ -2319,7 +2316,7 @@
         <v>78</v>
       </c>
       <c r="M16" s="30">
-        <f>IF(J16="","",IF(J16&lt;=$B$2,IF(K16="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="28">
@@ -2332,37 +2329,36 @@
         <v>1</v>
       </c>
       <c r="Q16" s="32">
-        <f>IF(O16="",0,P16)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R16" s="29" t="s">
         <v>78</v>
       </c>
       <c r="S16" s="30">
-        <f>IF(N16="","",IF($B$2&gt;=N16,IF(O16="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16" s="34">
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="U16" s="34">
         <v>0</v>
       </c>
       <c r="V16" s="15">
-        <f>IF(T16="","",T16+U16*10%)</f>
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="W16" s="34">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="X16" s="34"/>
       <c r="Y16" s="36">
-        <f>IF(W16="","",W16+X16*10%)</f>
-        <v>0.1</v>
-      </c>
-      <c r="Z16" s="37" t="s">
-        <v>79</v>
-      </c>
+        <f t="shared" ref="Y16:Y24" si="7">IF(W16="","",W16+X16*10%)</f>
+        <v>3</v>
+      </c>
+      <c r="Z16" s="37"/>
       <c r="AA16" s="38"/>
     </row>
     <row r="17" spans="1:27">
@@ -2372,7 +2368,7 @@
       <c r="B17" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="40" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="17"/>
@@ -2380,13 +2376,14 @@
         <v>1</v>
       </c>
       <c r="F17" s="15">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G17" s="15">
         <v>0</v>
       </c>
       <c r="H17" s="15">
-        <f>IF(F17="","",F17+G17*10%)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I17" s="27"/>
@@ -2400,7 +2397,7 @@
         <v>78</v>
       </c>
       <c r="M17" s="30" t="b">
-        <f>IF(J17="","",IF(J17&lt;=$B$2,IF(K17="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="28">
@@ -2413,30 +2410,31 @@
         <v>2</v>
       </c>
       <c r="Q17" s="32">
-        <f>IF(O17="",0,P17)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R17" s="29" t="s">
         <v>78</v>
       </c>
       <c r="S17" s="30" t="b">
-        <f>IF(N17="","",IF($B$2&gt;=N17,IF(O17="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T17" s="34">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U17" s="34">
         <v>0</v>
       </c>
       <c r="V17" s="15">
-        <f>IF(T17="","",T17+U17*10%)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W17" s="34"/>
       <c r="X17" s="34"/>
       <c r="Y17" s="36" t="str">
-        <f>IF(W17="","",W17+X17*10%)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z17" s="37"/>
@@ -2449,21 +2447,22 @@
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="15">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G18" s="15">
         <v>0</v>
       </c>
       <c r="H18" s="15">
-        <f>IF(F18="","",F18+G18*10%)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I18" s="27"/>
@@ -2477,7 +2476,7 @@
         <v>78</v>
       </c>
       <c r="M18" s="30" t="b">
-        <f>IF(J18="","",IF(J18&lt;=$B$2,IF(K18="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="28">
@@ -2490,30 +2489,31 @@
         <v>2</v>
       </c>
       <c r="Q18" s="32">
-        <f>IF(O18="",0,P18)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R18" s="29" t="s">
         <v>78</v>
       </c>
       <c r="S18" s="30" t="b">
-        <f>IF(N18="","",IF($B$2&gt;=N18,IF(O18="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T18" s="34">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U18" s="34">
         <v>0</v>
       </c>
       <c r="V18" s="15">
-        <f>IF(T18="","",T18+U18*10%)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W18" s="34"/>
       <c r="X18" s="34"/>
       <c r="Y18" s="36" t="str">
-        <f>IF(W18="","",W18+X18*10%)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z18" s="37"/>
@@ -2526,7 +2526,7 @@
       <c r="B19" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="40" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="17"/>
@@ -2534,13 +2534,14 @@
         <v>1</v>
       </c>
       <c r="F19" s="15">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G19" s="15">
         <v>0</v>
       </c>
       <c r="H19" s="15">
-        <f>IF(F19="","",F19+G19*10%)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I19" s="27"/>
@@ -2554,7 +2555,7 @@
         <v>78</v>
       </c>
       <c r="M19" s="30" t="b">
-        <f>IF(J19="","",IF(J19&lt;=$B$2,IF(K19="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N19" s="28">
@@ -2567,30 +2568,31 @@
         <v>2</v>
       </c>
       <c r="Q19" s="32">
-        <f>IF(O19="",0,P19)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R19" s="29" t="s">
         <v>78</v>
       </c>
       <c r="S19" s="30" t="b">
-        <f>IF(N19="","",IF($B$2&gt;=N19,IF(O19="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T19" s="34">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U19" s="34">
         <v>0</v>
       </c>
       <c r="V19" s="15">
-        <f>IF(T19="","",T19+U19*10%)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W19" s="34"/>
       <c r="X19" s="34"/>
       <c r="Y19" s="36" t="str">
-        <f>IF(W19="","",W19+X19*10%)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z19" s="37"/>
@@ -2603,7 +2605,7 @@
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="40" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="17"/>
@@ -2611,13 +2613,14 @@
         <v>1</v>
       </c>
       <c r="F20" s="15">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G20" s="15">
         <v>0</v>
       </c>
       <c r="H20" s="15">
-        <f>IF(F20="","",F20+G20*10%)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I20" s="27"/>
@@ -2631,7 +2634,7 @@
         <v>78</v>
       </c>
       <c r="M20" s="30" t="b">
-        <f>IF(J20="","",IF(J20&lt;=$B$2,IF(K20="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N20" s="28">
@@ -2644,30 +2647,31 @@
         <v>2</v>
       </c>
       <c r="Q20" s="32">
-        <f>IF(O20="",0,P20)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R20" s="29" t="s">
         <v>78</v>
       </c>
       <c r="S20" s="30" t="b">
-        <f>IF(N20="","",IF($B$2&gt;=N20,IF(O20="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T20" s="34">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U20" s="34">
         <v>0</v>
       </c>
       <c r="V20" s="15">
-        <f>IF(T20="","",T20+U20*10%)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W20" s="34"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="36" t="str">
-        <f>IF(W20="","",W20+X20*10%)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z20" s="37"/>
@@ -2680,21 +2684,22 @@
       <c r="B21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="56"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="14">
         <v>1</v>
       </c>
       <c r="F21" s="15">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G21" s="15">
         <v>0</v>
       </c>
       <c r="H21" s="15">
-        <f>IF(F21="","",F21+G21*10%)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I21" s="27"/>
@@ -2708,7 +2713,7 @@
         <v>78</v>
       </c>
       <c r="M21" s="30" t="b">
-        <f>IF(J21="","",IF(J21&lt;=$B$2,IF(K21="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="28">
@@ -2721,30 +2726,31 @@
         <v>2</v>
       </c>
       <c r="Q21" s="32">
-        <f>IF(O21="",0,P21)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R21" s="29" t="s">
         <v>78</v>
       </c>
       <c r="S21" s="30" t="b">
-        <f>IF(N21="","",IF($B$2&gt;=N21,IF(O21="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T21" s="34">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U21" s="34">
         <v>0</v>
       </c>
       <c r="V21" s="15">
-        <f>IF(T21="","",T21+U21*10%)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W21" s="34"/>
       <c r="X21" s="34"/>
       <c r="Y21" s="36" t="str">
-        <f>IF(W21="","",W21+X21*10%)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z21" s="37"/>
@@ -2757,7 +2763,7 @@
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="40" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="13"/>
@@ -2765,13 +2771,14 @@
         <v>1</v>
       </c>
       <c r="F22" s="15">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
       </c>
       <c r="H22" s="15">
-        <f>IF(F22="","",F22+G22*10%)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I22" s="27"/>
@@ -2785,7 +2792,7 @@
         <v>78</v>
       </c>
       <c r="M22" s="30" t="b">
-        <f>IF(J22="","",IF(J22&lt;=$B$2,IF(K22="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N22" s="28">
@@ -2798,30 +2805,31 @@
         <v>2</v>
       </c>
       <c r="Q22" s="32">
-        <f>IF(O22="",0,P22)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R22" s="29" t="s">
         <v>78</v>
       </c>
       <c r="S22" s="30" t="b">
-        <f>IF(N22="","",IF($B$2&gt;=N22,IF(O22="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T22" s="34">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U22" s="34">
         <v>0</v>
       </c>
       <c r="V22" s="15">
-        <f>IF(T22="","",T22+U22*10%)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W22" s="34"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="36" t="str">
-        <f>IF(W22="","",W22+X22*10%)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z22" s="37"/>
@@ -2834,7 +2842,7 @@
       <c r="B23" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="40" t="s">
         <v>76</v>
       </c>
       <c r="D23" s="13"/>
@@ -2842,13 +2850,14 @@
         <v>1</v>
       </c>
       <c r="F23" s="15">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
       </c>
       <c r="H23" s="15">
-        <f>IF(F23="","",F23+G23*10%)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I23" s="27"/>
@@ -2862,7 +2871,7 @@
         <v>78</v>
       </c>
       <c r="M23" s="30" t="b">
-        <f>IF(J23="","",IF(J23&lt;=$B$2,IF(K23="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="28">
@@ -2875,24 +2884,25 @@
         <v>2</v>
       </c>
       <c r="Q23" s="32">
-        <f>IF(O23="",0,P23)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>78</v>
       </c>
       <c r="S23" s="30" t="b">
-        <f>IF(N23="","",IF($B$2&gt;=N23,IF(O23="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T23" s="34">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U23" s="34">
         <v>0</v>
       </c>
       <c r="V23" s="15">
-        <f>IF(T23="","",T23+U23*10%)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W23" s="34">
@@ -2900,7 +2910,7 @@
       </c>
       <c r="X23" s="34"/>
       <c r="Y23" s="36">
-        <f>IF(W23="","",W23+X23*10%)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Z23" s="37"/>
@@ -2913,7 +2923,7 @@
       <c r="B24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="40" t="s">
         <v>77</v>
       </c>
       <c r="D24" s="13"/>
@@ -2921,13 +2931,14 @@
         <v>1</v>
       </c>
       <c r="F24" s="15">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
       </c>
       <c r="H24" s="15">
-        <f>IF(F24="","",F24+G24*10%)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I24" s="27"/>
@@ -2941,7 +2952,7 @@
         <v>78</v>
       </c>
       <c r="M24" s="30" t="b">
-        <f>IF(J24="","",IF(J24&lt;=$B$2,IF(K24="",1),0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N24" s="28">
@@ -2954,24 +2965,25 @@
         <v>2</v>
       </c>
       <c r="Q24" s="32">
-        <f>IF(O24="",0,P24)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R24" s="29" t="s">
         <v>78</v>
       </c>
       <c r="S24" s="30" t="b">
-        <f>IF(N24="","",IF($B$2&gt;=N24,IF(O24="",1),0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T24" s="33">
+      <c r="T24" s="34">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U24" s="33">
         <v>0</v>
       </c>
       <c r="V24" s="15">
-        <f>IF(T24="","",T24+U24*10%)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W24" s="33">
@@ -2979,7 +2991,7 @@
       </c>
       <c r="X24" s="33"/>
       <c r="Y24" s="36">
-        <f>IF(W24="","",W24+X24*10%)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Z24" s="37"/>
@@ -3044,7 +3056,7 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="41" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -3078,7 +3090,7 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="48"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="21" t="s">
         <v>32</v>
       </c>
@@ -3111,7 +3123,7 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="48"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="21" t="s">
         <v>33</v>
       </c>
@@ -3144,7 +3156,7 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="48"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="21" t="s">
         <v>34</v>
       </c>
@@ -3177,7 +3189,7 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="48"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="21" t="s">
         <v>35</v>
       </c>
@@ -3210,7 +3222,7 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="48"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="23" t="s">
         <v>9</v>
       </c>
@@ -3242,7 +3254,7 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27">
-      <c r="A33" s="48"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="21" t="s">
         <v>36</v>
       </c>
@@ -3275,7 +3287,7 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="48"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="21" t="s">
         <v>37</v>
       </c>
@@ -3308,7 +3320,7 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="48"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="21" t="s">
         <v>38</v>
       </c>
@@ -3341,7 +3353,7 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="48"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="21" t="s">
         <v>39</v>
       </c>
@@ -3374,7 +3386,7 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="15" thickBot="1">
-      <c r="A37" s="49"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="25" t="s">
         <v>10</v>
       </c>
@@ -7792,11 +7804,7 @@
     </sortState>
   </autoFilter>
   <mergeCells count="22">
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="S5:S6"/>
     <mergeCell ref="Z4:Z6"/>
     <mergeCell ref="J4:Y4"/>
     <mergeCell ref="T5:V5"/>
@@ -7813,7 +7821,11 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7822,6 +7834,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="2" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -7833,45 +7864,26 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="2" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="4"/>
-</pixelators>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/doc/11. 小组进度日报/7.29.xlsx
+++ b/doc/11. 小组进度日报/7.29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vue\SNS\SNS\doc\11. 小组进度日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828B53D5-6D29-49B7-9E0E-23F727C05E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3A3D8F-ABC8-4858-B8CF-A299C8DF3DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15945" yWindow="2700" windowWidth="20385" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="代码管理" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -135,221 +135,269 @@
     <t>代码完成行数 (KS)</t>
   </si>
   <si>
-    <t>分析及び対策</t>
+    <t>予定完成
+日付</t>
+  </si>
+  <si>
+    <t>累計
+時間
+（h）</t>
+  </si>
+  <si>
+    <t>作業
+完成
+状態</t>
+  </si>
+  <si>
+    <t>累計作業</t>
+  </si>
+  <si>
+    <t>当日作成</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>手动作业</t>
+  </si>
+  <si>
+    <t>自动zuoye</t>
+  </si>
+  <si>
+    <t>手動
+作業累計</t>
+  </si>
+  <si>
+    <t>自動
+作業累計</t>
+  </si>
+  <si>
+    <t>手動
+作成</t>
+  </si>
+  <si>
+    <t>自動
+作成</t>
+  </si>
+  <si>
+    <t>进度统计</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始率</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端-用户登录注册界面</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端-博文、评论有关界面</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端-内推有关界面</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端-活动有关界面</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端-发包、简历有关界面</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端-用户登录注册逻辑</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端-博文、评论逻辑</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端-活动有关逻辑</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端-内推有关逻辑</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端-发包、简历有关逻辑</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库-用户信息</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库-博文信息</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>fronted-001</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>fronted-002</t>
+  </si>
+  <si>
+    <t>fronted-003</t>
+  </si>
+  <si>
+    <t>fronted-004</t>
+  </si>
+  <si>
+    <t>fronted-005</t>
+  </si>
+  <si>
+    <t>backend-001</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>backend-002</t>
+  </si>
+  <si>
+    <t>backend-003</t>
+  </si>
+  <si>
+    <t>backend-004</t>
+  </si>
+  <si>
+    <t>backend-005</t>
+  </si>
+  <si>
+    <t>database-001</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>database-002</t>
+  </si>
+  <si>
+    <t>database-003</t>
+  </si>
+  <si>
+    <t>database-004</t>
+  </si>
+  <si>
+    <t>database-005</t>
+  </si>
+  <si>
+    <t>database-006</t>
+  </si>
+  <si>
+    <t>database-007</t>
+  </si>
+  <si>
+    <t>database-008</t>
+  </si>
+  <si>
+    <t>数据库-评论信息</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库-内推信息</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库-收藏信息</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库-活动信息</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库-订单信息</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库-简历信息</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析及対策</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>作業
 開始
 状態</t>
-  </si>
-  <si>
-    <t>予定完成
-日付</t>
-  </si>
-  <si>
-    <t>累計
-時間
-（h）</t>
-  </si>
-  <si>
-    <t>作業
-完成
-状態</t>
-  </si>
-  <si>
-    <t>累計作業</t>
-  </si>
-  <si>
-    <t>当日作成</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>手动作业</t>
-  </si>
-  <si>
-    <t>自动zuoye</t>
-  </si>
-  <si>
-    <t>手動
-作業累計</t>
-  </si>
-  <si>
-    <t>自動
-作業累計</t>
-  </si>
-  <si>
-    <t>手動
-作成</t>
-  </si>
-  <si>
-    <t>自動
-作成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  事前に開始</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  予定とおり開始</t>
-  </si>
-  <si>
-    <t>　延期で開始してない</t>
-  </si>
-  <si>
-    <t>　延期で開始</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  事前に完成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  予定とおり完成</t>
-  </si>
-  <si>
-    <t>　延期で完成してない</t>
-  </si>
-  <si>
-    <t>　延期で完成</t>
-  </si>
-  <si>
-    <t>进度统计</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>开始率</t>
+    <t>按时开始</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>前端-用户登录注册界面</t>
+    <t>延期开始</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>前端-博文、评论有关界面</t>
+    <t>开始不了了</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>前端-内推有关界面</t>
+    <t>还没开始</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>前端-活动有关界面</t>
+    <t>延期完成</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>前端-发包、简历有关界面</t>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>完成</t>
+    </r>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>后端-用户登录注册逻辑</t>
+    <r>
+      <t>延期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行中</t>
+    </r>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>后端-博文、评论逻辑</t>
+    <t>按时进行中</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>后端-活动有关逻辑</t>
+    <t>我们拥有世界上最好的后端，没有任何问题</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>后端-内推有关逻辑</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端-发包、简历有关逻辑</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库-用户信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库-博文信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>fronted-001</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>fronted-002</t>
-  </si>
-  <si>
-    <t>fronted-003</t>
-  </si>
-  <si>
-    <t>fronted-004</t>
-  </si>
-  <si>
-    <t>fronted-005</t>
-  </si>
-  <si>
-    <t>backend-001</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>backend-002</t>
-  </si>
-  <si>
-    <t>backend-003</t>
-  </si>
-  <si>
-    <t>backend-004</t>
-  </si>
-  <si>
-    <t>backend-005</t>
-  </si>
-  <si>
-    <t>database-001</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>database-002</t>
-  </si>
-  <si>
-    <t>database-003</t>
-  </si>
-  <si>
-    <t>database-004</t>
-  </si>
-  <si>
-    <t>database-005</t>
-  </si>
-  <si>
-    <t>database-006</t>
-  </si>
-  <si>
-    <t>database-007</t>
-  </si>
-  <si>
-    <t>database-008</t>
-  </si>
-  <si>
-    <t>数据库-评论信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库-内推信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库-收藏信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库-活动信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库-订单信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库-简历信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>◎</t>
+    <t>我们拥有世界上最好的数据库人员，没有任何问题</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +416,7 @@
     <numFmt numFmtId="183" formatCode="0.0000_ "/>
     <numFmt numFmtId="184" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,6 +441,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -476,6 +525,13 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -774,7 +830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,6 +954,15 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -925,19 +990,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,6 +1007,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1282,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA188"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1409,149 +1480,149 @@
       <c r="A4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="50" t="s">
-        <v>18</v>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="AA4" s="35"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="53"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
       <c r="I5" s="54"/>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="49" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="49" t="s">
         <v>19</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="46" t="s">
-        <v>21</v>
       </c>
       <c r="Q5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="55" t="s">
+      <c r="R5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="50"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="60"/>
       <c r="AA5" s="35"/>
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1">
       <c r="A6" s="53"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
       <c r="Q6" s="54"/>
       <c r="R6" s="54"/>
-      <c r="S6" s="55"/>
+      <c r="S6" s="56"/>
       <c r="T6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Y6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="50"/>
+      <c r="Z6" s="60"/>
       <c r="AA6" s="35"/>
     </row>
     <row r="7" spans="1:27">
@@ -1559,10 +1630,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14">
@@ -1590,7 +1661,7 @@
         <v>45498</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M7" s="30" t="b">
         <f t="shared" ref="M7:M24" si="1">IF(J7="","",IF(J7&lt;=$B$2,IF(K7="",1),0))</f>
@@ -1609,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S7" s="30" t="b">
         <f t="shared" ref="S7:S24" si="2">IF(N7="","",IF($B$2&gt;=N7,IF(O7="",1),0))</f>
@@ -1640,10 +1711,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14">
@@ -1671,7 +1742,7 @@
         <v>45498</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M8" s="30" t="b">
         <f t="shared" si="1"/>
@@ -1690,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S8" s="30" t="b">
         <f t="shared" si="2"/>
@@ -1721,10 +1792,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14">
@@ -1752,7 +1823,7 @@
         <v>45498</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M9" s="30" t="b">
         <f t="shared" si="1"/>
@@ -1771,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S9" s="30" t="b">
         <f t="shared" si="2"/>
@@ -1802,10 +1873,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14">
@@ -1833,17 +1904,17 @@
         <v>45499</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M10" s="30" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="28">
-        <v>45501</v>
+        <v>45499</v>
       </c>
       <c r="O10" s="28">
-        <v>45501</v>
+        <v>45499</v>
       </c>
       <c r="P10" s="31">
         <v>10</v>
@@ -1852,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S10" s="30" t="b">
         <f t="shared" si="2"/>
@@ -1883,10 +1954,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14">
@@ -1908,23 +1979,23 @@
         <v>#REF!</v>
       </c>
       <c r="J11" s="28">
-        <v>44038</v>
+        <v>45502</v>
       </c>
       <c r="K11" s="28">
-        <v>44038</v>
+        <v>45502</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M11" s="30" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="28">
-        <v>45501</v>
+        <v>45502</v>
       </c>
       <c r="O11" s="28">
-        <v>45501</v>
+        <v>45499</v>
       </c>
       <c r="P11" s="31">
         <v>20</v>
@@ -1933,7 +2004,7 @@
         <v>20</v>
       </c>
       <c r="R11" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S11" s="30" t="b">
         <f t="shared" si="2"/>
@@ -1966,10 +2037,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14">
@@ -1994,10 +2065,10 @@
         <v>45499</v>
       </c>
       <c r="K12" s="28">
-        <v>44038</v>
+        <v>45499</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M12" s="30" t="b">
         <f t="shared" si="1"/>
@@ -2007,17 +2078,16 @@
         <v>45499</v>
       </c>
       <c r="O12" s="28">
-        <v>44038</v>
+        <v>45499</v>
       </c>
       <c r="P12" s="31">
         <v>1</v>
       </c>
       <c r="Q12" s="32">
-        <f t="shared" ref="Q12:Q24" si="6">IF(O12="",0,P12)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R12" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S12" s="30" t="b">
         <f t="shared" si="2"/>
@@ -2045,10 +2115,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14">
@@ -2073,10 +2143,10 @@
         <v>45500</v>
       </c>
       <c r="K13" s="28">
-        <v>44039</v>
+        <v>45500</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M13" s="30" t="b">
         <f t="shared" si="1"/>
@@ -2086,17 +2156,16 @@
         <v>45500</v>
       </c>
       <c r="O13" s="28">
-        <v>44039</v>
+        <v>45500</v>
       </c>
       <c r="P13" s="31">
         <v>1</v>
       </c>
       <c r="Q13" s="32">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R13" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S13" s="30" t="b">
         <f t="shared" si="2"/>
@@ -2124,10 +2193,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14">
@@ -2152,10 +2221,10 @@
         <v>45501</v>
       </c>
       <c r="K14" s="28">
-        <v>44039</v>
+        <v>45500</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M14" s="30" t="b">
         <f t="shared" si="1"/>
@@ -2165,17 +2234,16 @@
         <v>45501</v>
       </c>
       <c r="O14" s="28">
-        <v>44039</v>
+        <v>45500</v>
       </c>
       <c r="P14" s="31">
         <v>1</v>
       </c>
       <c r="Q14" s="32">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R14" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S14" s="30" t="b">
         <f t="shared" si="2"/>
@@ -2203,10 +2271,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="14">
@@ -2231,10 +2299,10 @@
         <v>45502</v>
       </c>
       <c r="K15" s="28">
-        <v>44041</v>
+        <v>45502</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M15" s="30" t="b">
         <f t="shared" si="1"/>
@@ -2244,17 +2312,16 @@
         <v>45502</v>
       </c>
       <c r="O15" s="28">
-        <v>44041</v>
+        <v>45502</v>
       </c>
       <c r="P15" s="31">
         <v>1</v>
       </c>
       <c r="Q15" s="32">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R15" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S15" s="30" t="b">
         <f t="shared" si="2"/>
@@ -2271,9 +2338,13 @@
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="W15" s="34"/>
+      <c r="W15" s="34">
+        <v>1.8</v>
+      </c>
       <c r="X15" s="34"/>
-      <c r="Y15" s="36"/>
+      <c r="Y15" s="36">
+        <v>1.8</v>
+      </c>
       <c r="Z15" s="37"/>
       <c r="AA15" s="38"/>
     </row>
@@ -2282,10 +2353,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="14">
@@ -2310,10 +2381,10 @@
         <v>45503</v>
       </c>
       <c r="K16" s="28">
-        <v>44041</v>
+        <v>45502</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M16" s="30">
         <f t="shared" si="1"/>
@@ -2323,17 +2394,16 @@
         <v>45503</v>
       </c>
       <c r="O16" s="28">
-        <v>44041</v>
+        <v>45502</v>
       </c>
       <c r="P16" s="31">
         <v>1</v>
       </c>
       <c r="Q16" s="32">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S16" s="30">
         <f t="shared" si="2"/>
@@ -2355,10 +2425,12 @@
       </c>
       <c r="X16" s="34"/>
       <c r="Y16" s="36">
-        <f t="shared" ref="Y16:Y24" si="7">IF(W16="","",W16+X16*10%)</f>
+        <f t="shared" ref="Y16:Y24" si="6">IF(W16="","",W16+X16*10%)</f>
         <v>3</v>
       </c>
-      <c r="Z16" s="37"/>
+      <c r="Z16" s="43" t="s">
+        <v>79</v>
+      </c>
       <c r="AA16" s="38"/>
     </row>
     <row r="17" spans="1:27">
@@ -2366,10 +2438,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="14">
@@ -2394,7 +2466,7 @@
         <v>45499</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M17" s="30" t="b">
         <f t="shared" si="1"/>
@@ -2410,11 +2482,10 @@
         <v>2</v>
       </c>
       <c r="Q17" s="32">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R17" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S17" s="30" t="b">
         <f t="shared" si="2"/>
@@ -2434,7 +2505,7 @@
       <c r="W17" s="34"/>
       <c r="X17" s="34"/>
       <c r="Y17" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z17" s="37"/>
@@ -2445,10 +2516,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="14">
@@ -2473,7 +2544,7 @@
         <v>45499</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M18" s="30" t="b">
         <f t="shared" si="1"/>
@@ -2489,11 +2560,10 @@
         <v>2</v>
       </c>
       <c r="Q18" s="32">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S18" s="30" t="b">
         <f t="shared" si="2"/>
@@ -2513,7 +2583,7 @@
       <c r="W18" s="34"/>
       <c r="X18" s="34"/>
       <c r="Y18" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z18" s="37"/>
@@ -2524,10 +2594,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="14">
@@ -2552,7 +2622,7 @@
         <v>45499</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M19" s="30" t="b">
         <f t="shared" si="1"/>
@@ -2568,11 +2638,10 @@
         <v>2</v>
       </c>
       <c r="Q19" s="32">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R19" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S19" s="30" t="b">
         <f t="shared" si="2"/>
@@ -2592,7 +2661,7 @@
       <c r="W19" s="34"/>
       <c r="X19" s="34"/>
       <c r="Y19" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z19" s="37"/>
@@ -2603,10 +2672,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="14">
@@ -2631,7 +2700,7 @@
         <v>45499</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M20" s="30" t="b">
         <f t="shared" si="1"/>
@@ -2647,11 +2716,10 @@
         <v>2</v>
       </c>
       <c r="Q20" s="32">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S20" s="30" t="b">
         <f t="shared" si="2"/>
@@ -2671,7 +2739,7 @@
       <c r="W20" s="34"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z20" s="37"/>
@@ -2682,10 +2750,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="14">
@@ -2710,7 +2778,7 @@
         <v>45500</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M21" s="30" t="b">
         <f t="shared" si="1"/>
@@ -2726,11 +2794,10 @@
         <v>2</v>
       </c>
       <c r="Q21" s="32">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R21" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S21" s="30" t="b">
         <f t="shared" si="2"/>
@@ -2750,7 +2817,7 @@
       <c r="W21" s="34"/>
       <c r="X21" s="34"/>
       <c r="Y21" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z21" s="37"/>
@@ -2761,10 +2828,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="14">
@@ -2789,7 +2856,7 @@
         <v>45500</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M22" s="30" t="b">
         <f t="shared" si="1"/>
@@ -2805,11 +2872,10 @@
         <v>2</v>
       </c>
       <c r="Q22" s="32">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S22" s="30" t="b">
         <f t="shared" si="2"/>
@@ -2829,7 +2895,7 @@
       <c r="W22" s="34"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z22" s="37"/>
@@ -2840,10 +2906,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="14">
@@ -2868,7 +2934,7 @@
         <v>45500</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M23" s="30" t="b">
         <f t="shared" si="1"/>
@@ -2884,11 +2950,10 @@
         <v>2</v>
       </c>
       <c r="Q23" s="32">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S23" s="30" t="b">
         <f t="shared" si="2"/>
@@ -2910,10 +2975,12 @@
       </c>
       <c r="X23" s="34"/>
       <c r="Y23" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Z23" s="37"/>
+      <c r="Z23" s="43" t="s">
+        <v>80</v>
+      </c>
       <c r="AA23" s="38"/>
     </row>
     <row r="24" spans="1:27">
@@ -2921,10 +2988,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="14">
@@ -2949,7 +3016,7 @@
         <v>45500</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M24" s="30" t="b">
         <f t="shared" si="1"/>
@@ -2965,11 +3032,10 @@
         <v>2</v>
       </c>
       <c r="Q24" s="32">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S24" s="30" t="b">
         <f t="shared" si="2"/>
@@ -2991,10 +3057,12 @@
       </c>
       <c r="X24" s="33"/>
       <c r="Y24" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Z24" s="37"/>
+      <c r="Z24" s="43" t="s">
+        <v>80</v>
+      </c>
       <c r="AA24" s="38"/>
     </row>
     <row r="25" spans="1:27">
@@ -3056,11 +3124,11 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="41" t="s">
-        <v>40</v>
+      <c r="A27" s="44" t="s">
+        <v>30</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C27" s="20">
         <v>1</v>
@@ -3090,9 +3158,9 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="42"/>
-      <c r="B28" s="21" t="s">
-        <v>32</v>
+      <c r="A28" s="45"/>
+      <c r="B28" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="C28" s="22">
         <f>COUNTIF($L$7:$L$24,"◎")</f>
@@ -3123,9 +3191,9 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="42"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="21" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C29" s="22">
         <f>COUNTIF($L$7:$L$24,"○")</f>
@@ -3156,9 +3224,9 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="42"/>
-      <c r="B30" s="21" t="s">
-        <v>34</v>
+      <c r="A30" s="45"/>
+      <c r="B30" s="41" t="s">
+        <v>74</v>
       </c>
       <c r="C30" s="22">
         <f>COUNTIF(M7:M24,1)</f>
@@ -3189,9 +3257,9 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="42"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="21" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C31" s="22">
         <f>COUNTIF($L$7:$L$24,"△")</f>
@@ -3222,7 +3290,7 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="42"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="23" t="s">
         <v>9</v>
       </c>
@@ -3254,9 +3322,9 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27">
-      <c r="A33" s="42"/>
-      <c r="B33" s="21" t="s">
-        <v>36</v>
+      <c r="A33" s="45"/>
+      <c r="B33" s="42" t="s">
+        <v>76</v>
       </c>
       <c r="C33" s="22">
         <f>COUNTIF($R$7:$R$24,"◎")</f>
@@ -3287,9 +3355,9 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="42"/>
-      <c r="B34" s="21" t="s">
-        <v>37</v>
+      <c r="A34" s="45"/>
+      <c r="B34" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="C34" s="22">
         <f>COUNTIF($R$7:$R$24,"○")</f>
@@ -3320,9 +3388,9 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="42"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="21" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C35" s="22">
         <f>COUNTIF(S7:S24,1)</f>
@@ -3353,9 +3421,9 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="42"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="21" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C36" s="22">
         <f>COUNTIF($R$7:$R$24,"△")</f>
@@ -3386,12 +3454,13 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="15" thickBot="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="26">
-        <v>1</v>
+        <f>E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22+E23+E24</f>
+        <v>24</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="1"/>
@@ -3417,7 +3486,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" ht="14.25" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -7809,23 +7878,23 @@
     <mergeCell ref="J4:Y4"/>
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
     <mergeCell ref="F4:H5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
     <mergeCell ref="A27:A37"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7834,25 +7903,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="4"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="3" master=""/>
   <rangeList sheetStid="2" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -7864,26 +7921,38 @@
 </woProps>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/doc/11. 小组进度日报/7.29.xlsx
+++ b/doc/11. 小组进度日报/7.29.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vue\SNS\SNS\doc\11. 小组进度日报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\SNSproject\SNS\doc\11. 小组进度日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3A3D8F-ABC8-4858-B8CF-A299C8DF3DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC40D2D-B325-45A6-8DDD-6766ABF0D564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="代码管理" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>No</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>合計</t>
-  </si>
-  <si>
-    <t>完成率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  工数統計</t>
   </si>
   <si>
     <t>日期</t>
@@ -135,6 +129,11 @@
     <t>代码完成行数 (KS)</t>
   </si>
   <si>
+    <t>作業
+開始
+状態</t>
+  </si>
+  <si>
     <t>予定完成
 日付</t>
   </si>
@@ -178,14 +177,6 @@
   <si>
     <t>自動
 作成</t>
-  </si>
-  <si>
-    <t>进度统计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始率</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>前端-用户登录注册界面</t>
@@ -324,82 +315,6 @@
     <t>分析及対策</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
-  <si>
-    <t>作業
-開始
-状態</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>按时开始</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>延期开始</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始不了了</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>还没开始</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>延期完成</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>按时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-      </rPr>
-      <t>完成</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>延期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行中</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>按时进行中</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们拥有世界上最好的后端，没有任何问题</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们拥有世界上最好的数据库人员，没有任何问题</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -416,7 +331,7 @@
     <numFmt numFmtId="183" formatCode="0.0000_ "/>
     <numFmt numFmtId="184" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,7 +356,6 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -528,15 +442,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,18 +488,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -660,161 +561,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFCC99"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFCC99"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFCC99"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFCC99"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -830,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,30 +634,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,38 +670,50 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -990,35 +724,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1351,13 +1058,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA188"/>
+  <dimension ref="A1:AA177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z10:Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -1416,7 +1123,7 @@
     </row>
     <row r="2" spans="1:27" ht="24.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4">
         <v>45502</v>
@@ -1477,332 +1184,327 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="E4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="F4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" s="27"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="39"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="61" t="s">
+      <c r="M5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA4" s="35"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="53"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="49" t="s">
+      <c r="O5" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="49" t="s">
+      <c r="Q5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="56" t="s">
+      <c r="S5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="62" t="s">
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62" t="s">
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="27"/>
+    </row>
+    <row r="6" spans="1:27" ht="30" customHeight="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="35"/>
-    </row>
-    <row r="6" spans="1:27" ht="30" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="56"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="35"/>
       <c r="T6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="W6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="Y6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="35"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="27"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="11">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="15">
-        <f>E7</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7" s="15">
         <v>0</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" ref="H7:H24" si="0">IF(F7="","",F7+G7*10%)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="27" t="e">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19" t="e">
         <f>IF([1]单体测试!AB7="","",Q7+#REF!+[2]詳細設計書レビュー!M8+[2]詳細設計書レビュー!Q8+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD7+[1]单体测试!O7)</f>
         <v>#REF!</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="20">
         <v>45498</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="20">
         <v>45498</v>
       </c>
-      <c r="L7" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="30" t="b">
+      <c r="L7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="22" t="b">
         <f t="shared" ref="M7:M24" si="1">IF(J7="","",IF(J7&lt;=$B$2,IF(K7="",1),0))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="20">
         <v>45498</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="20">
         <v>45498</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="23">
         <v>10</v>
       </c>
-      <c r="Q7" s="32">
+      <c r="Q7" s="24">
         <v>10</v>
       </c>
-      <c r="R7" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S7" s="30" t="b">
+      <c r="R7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="22" t="b">
         <f t="shared" ref="S7:S24" si="2">IF(N7="","",IF($B$2&gt;=N7,IF(O7="",1),0))</f>
         <v>0</v>
       </c>
-      <c r="T7" s="34">
-        <f>E7</f>
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="34">
+      <c r="T7" s="26">
+        <v>1</v>
+      </c>
+      <c r="U7" s="26">
         <v>0</v>
       </c>
       <c r="V7" s="15">
         <f t="shared" ref="V7:V24" si="3">IF(T7="","",T7+U7*10%)</f>
-        <v>0.5</v>
-      </c>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="28" t="str">
         <f>IF(W7="","",W7+X7*10%)</f>
         <v/>
       </c>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="38"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="30"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="11">
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" ref="F8:F24" si="4">E8</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="27" t="e">
+        <v>1</v>
+      </c>
+      <c r="I8" s="19" t="e">
         <f>IF([1]单体测试!AB8="","",Q8+#REF!+[2]詳細設計書レビュー!M9+[2]詳細設計書レビュー!Q9+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD8+[1]单体测试!O8)</f>
         <v>#REF!</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="20">
         <v>45498</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="20">
         <v>45498</v>
       </c>
-      <c r="L8" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="30" t="b">
+      <c r="L8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="20">
         <v>45498</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="20">
         <v>45498</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="23">
         <v>10</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="24">
         <v>10</v>
       </c>
-      <c r="R8" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S8" s="30" t="b">
+      <c r="R8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8" s="34">
-        <f t="shared" ref="T8:T24" si="5">E8</f>
-        <v>1.5</v>
-      </c>
-      <c r="U8" s="34">
+      <c r="T8" s="26">
+        <v>1</v>
+      </c>
+      <c r="U8" s="26">
         <v>0</v>
       </c>
       <c r="V8" s="15">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="28" t="str">
         <f>IF(W8="","",W8+X8*10%)</f>
         <v/>
       </c>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="38"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="30"/>
     </row>
     <row r="9" spans="1:27" ht="20.45" customHeight="1">
       <c r="A9" s="11">
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14">
         <v>1</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G9" s="15">
@@ -1812,643 +1514,626 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="27" t="e">
+      <c r="I9" s="19" t="e">
         <f>IF([1]单体测试!AB9="","",Q9+#REF!+[2]詳細設計書レビュー!M10+[2]詳細設計書レビュー!Q10+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD9+[1]单体测试!O9)</f>
         <v>#REF!</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="20">
         <v>45498</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="20">
         <v>45498</v>
       </c>
-      <c r="L9" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="30" t="b">
+      <c r="L9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="20">
         <v>45498</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="20">
         <v>45498</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="23">
         <v>10</v>
       </c>
-      <c r="Q9" s="32">
+      <c r="Q9" s="24">
         <v>10</v>
       </c>
-      <c r="R9" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S9" s="30" t="b">
+      <c r="R9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T9" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U9" s="34">
+      <c r="T9" s="26">
+        <v>1</v>
+      </c>
+      <c r="U9" s="26">
         <v>0</v>
       </c>
       <c r="V9" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="36" t="str">
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="28" t="str">
         <f>IF(W9="","",W9+X9*10%)</f>
         <v/>
       </c>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="38"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="30"/>
     </row>
     <row r="10" spans="1:27" ht="19.149999999999999" customHeight="1">
       <c r="A10" s="11">
         <v>4</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="15">
         <v>0</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="I10" s="27" t="e">
+        <v>1</v>
+      </c>
+      <c r="I10" s="19" t="e">
         <f>IF([1]单体测试!AB11="","",Q10+#REF!+[2]詳細設計書レビュー!M12+[2]詳細設計書レビュー!Q12+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD11+[1]单体测试!O11)</f>
         <v>#REF!</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="20">
         <v>45499</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="20">
         <v>45499</v>
       </c>
-      <c r="L10" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="30" t="b">
+      <c r="L10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="28">
-        <v>45499</v>
-      </c>
-      <c r="O10" s="28">
-        <v>45499</v>
-      </c>
-      <c r="P10" s="31">
+      <c r="N10" s="20">
+        <v>45501</v>
+      </c>
+      <c r="O10" s="20">
+        <v>45501</v>
+      </c>
+      <c r="P10" s="23">
         <v>10</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="24">
         <v>10</v>
       </c>
-      <c r="R10" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S10" s="30" t="b">
+      <c r="R10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T10" s="34">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="U10" s="34">
+      <c r="T10" s="26">
+        <v>1</v>
+      </c>
+      <c r="U10" s="26">
         <v>0</v>
       </c>
       <c r="V10" s="15">
         <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="28" t="str">
         <f>IF(W10="","",W10+X10*10%)</f>
         <v/>
       </c>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="38"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="30"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="11">
         <v>5</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="15">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G11" s="15">
         <v>0</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="I11" s="27" t="e">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19" t="e">
         <f>IF([1]单体测试!AB12="","",Q11+#REF!+[2]詳細設計書レビュー!M13+[2]詳細設計書レビュー!Q13+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD12+[1]单体测试!O12)</f>
         <v>#REF!</v>
       </c>
-      <c r="J11" s="28">
-        <v>45502</v>
-      </c>
-      <c r="K11" s="28">
-        <v>45502</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="30" t="b">
+      <c r="J11" s="20">
+        <v>44038</v>
+      </c>
+      <c r="K11" s="20">
+        <v>44038</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="28">
-        <v>45502</v>
-      </c>
-      <c r="O11" s="28">
-        <v>45499</v>
-      </c>
-      <c r="P11" s="31">
+      <c r="N11" s="20">
+        <v>45501</v>
+      </c>
+      <c r="O11" s="20">
+        <v>45501</v>
+      </c>
+      <c r="P11" s="23">
         <v>20</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="24">
         <v>20</v>
       </c>
-      <c r="R11" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11" s="30" t="b">
+      <c r="R11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T11" s="34">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="U11" s="34">
+      <c r="T11" s="26">
+        <v>1</v>
+      </c>
+      <c r="U11" s="26">
         <v>0</v>
       </c>
       <c r="V11" s="15">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="W11" s="34">
-        <v>2.5</v>
-      </c>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="36">
+        <v>1</v>
+      </c>
+      <c r="W11" s="26">
+        <v>1</v>
+      </c>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="28">
         <f>IF(W11="","",W11+X11*10%)</f>
-        <v>2.5</v>
-      </c>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="30"/>
     </row>
     <row r="12" spans="1:27" ht="20.45" customHeight="1">
       <c r="A12" s="11">
         <v>6</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F12" s="15">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G12" s="15">
         <v>0</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="27" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="19" t="e">
         <f>IF([1]单体测试!AB13="","",Q12+#REF!+[2]詳細設計書レビュー!M14+[2]詳細設計書レビュー!Q14+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD13+[1]单体测试!O13)</f>
         <v>#REF!</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="20">
         <v>45499</v>
       </c>
-      <c r="K12" s="28">
-        <v>45499</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="30" t="b">
+      <c r="K12" s="20">
+        <v>44038</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="20">
         <v>45499</v>
       </c>
-      <c r="O12" s="28">
-        <v>45499</v>
-      </c>
-      <c r="P12" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="32">
-        <v>20</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S12" s="30" t="b">
+      <c r="O12" s="20">
+        <v>44038</v>
+      </c>
+      <c r="P12" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="24">
+        <f t="shared" ref="Q12:Q24" si="4">IF(O12="",0,P12)</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T12" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="34">
+      <c r="T12" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="U12" s="26">
         <v>0</v>
       </c>
       <c r="V12" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="38"/>
+        <v>0.1</v>
+      </c>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="30"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="11">
         <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="G13" s="15">
         <v>0</v>
       </c>
       <c r="H13" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I13" s="27" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="19" t="e">
         <f>IF([1]单体测试!AB14="","",Q13+#REF!+[2]詳細設計書レビュー!M15+[2]詳細設計書レビュー!Q15+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD14+[1]单体测试!O14)</f>
         <v>#REF!</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="20">
         <v>45500</v>
       </c>
-      <c r="K13" s="28">
-        <v>45500</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="30" t="b">
+      <c r="K13" s="20">
+        <v>44039</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="20">
         <v>45500</v>
       </c>
-      <c r="O13" s="28">
-        <v>45500</v>
-      </c>
-      <c r="P13" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="32">
-        <v>15</v>
-      </c>
-      <c r="R13" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" s="30" t="b">
+      <c r="O13" s="20">
+        <v>44039</v>
+      </c>
+      <c r="P13" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T13" s="34">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="U13" s="34">
+      <c r="T13" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="U13" s="26">
         <v>0</v>
       </c>
       <c r="V13" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="38"/>
+        <v>0.1</v>
+      </c>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="30"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="11">
         <v>8</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="G14" s="15">
         <v>0</v>
       </c>
       <c r="H14" s="15">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="27" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="19" t="e">
         <f>IF([1]单体测试!AB15="","",Q14+#REF!+[2]詳細設計書レビュー!M16+[2]詳細設計書レビュー!Q16+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD15+[1]单体测试!O15)</f>
         <v>#REF!</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="20">
         <v>45501</v>
       </c>
-      <c r="K14" s="28">
-        <v>45500</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="30" t="b">
+      <c r="K14" s="20">
+        <v>44039</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="20">
         <v>45501</v>
       </c>
-      <c r="O14" s="28">
-        <v>45500</v>
-      </c>
-      <c r="P14" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="32">
-        <v>15</v>
-      </c>
-      <c r="R14" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S14" s="30" t="b">
+      <c r="O14" s="20">
+        <v>44039</v>
+      </c>
+      <c r="P14" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S14" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="34">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="U14" s="34">
+      <c r="T14" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="U14" s="26">
         <v>0</v>
       </c>
       <c r="V14" s="15">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="38"/>
+        <v>0.1</v>
+      </c>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="30"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="11">
         <v>9</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="31"/>
       <c r="E15" s="14">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="F15" s="15">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="G15" s="15">
         <v>0</v>
       </c>
       <c r="H15" s="15">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="I15" s="27" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="19" t="e">
         <f>IF([1]单体测试!AB16="","",Q15+#REF!+[2]詳細設計書レビュー!M17+[2]詳細設計書レビュー!Q17+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD16+[1]单体测试!O16)</f>
         <v>#REF!</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="20">
         <v>45502</v>
       </c>
-      <c r="K15" s="28">
-        <v>45502</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="30" t="b">
+      <c r="K15" s="20">
+        <v>44041</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="20">
         <v>45502</v>
       </c>
-      <c r="O15" s="28">
-        <v>45502</v>
-      </c>
-      <c r="P15" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="32">
-        <v>15</v>
-      </c>
-      <c r="R15" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S15" s="30" t="b">
+      <c r="O15" s="20">
+        <v>44041</v>
+      </c>
+      <c r="P15" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T15" s="34">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-      <c r="U15" s="34">
+      <c r="T15" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="U15" s="26">
         <v>0</v>
       </c>
       <c r="V15" s="15">
         <f t="shared" si="3"/>
-        <v>1.8</v>
-      </c>
-      <c r="W15" s="34">
-        <v>1.8</v>
-      </c>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="36">
-        <v>1.8</v>
-      </c>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="38"/>
+        <v>0.1</v>
+      </c>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="30"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="11">
         <v>10</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>38</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="14">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="G16" s="15">
         <v>0</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I16" s="27" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="19" t="e">
         <f>IF([1]单体测试!AB17="","",Q16+#REF!+[2]詳細設計書レビュー!M18+[2]詳細設計書レビュー!Q18+[2]詳細設計書レビュー!#REF!+[2]詳細設計書レビュー!#REF!+[1]单体测试!AD17+[1]单体测试!O17)</f>
         <v>#REF!</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="20">
         <v>45503</v>
       </c>
-      <c r="K16" s="28">
-        <v>45502</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="30">
+      <c r="K16" s="20">
+        <v>44041</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="20">
         <v>45503</v>
       </c>
-      <c r="O16" s="28">
-        <v>45502</v>
-      </c>
-      <c r="P16" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="32">
-        <v>30</v>
-      </c>
-      <c r="R16" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S16" s="30">
+      <c r="O16" s="20">
+        <v>44041</v>
+      </c>
+      <c r="P16" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S16" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T16" s="34">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="U16" s="34">
+      <c r="T16" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="U16" s="26">
         <v>0</v>
       </c>
       <c r="V16" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="W16" s="34">
-        <v>3</v>
-      </c>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="36">
-        <f t="shared" ref="Y16:Y24" si="6">IF(W16="","",W16+X16*10%)</f>
-        <v>3</v>
-      </c>
-      <c r="Z16" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA16" s="38"/>
+        <v>0.1</v>
+      </c>
+      <c r="W16" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="28">
+        <f t="shared" ref="Y16:Y24" si="5">IF(W16="","",W16+X16*10%)</f>
+        <v>0.1</v>
+      </c>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="30"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="11">
         <v>11</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G17" s="15">
@@ -2458,75 +2143,74 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28">
+      <c r="I17" s="19"/>
+      <c r="J17" s="20">
         <v>45499</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="20">
         <v>45499</v>
       </c>
-      <c r="L17" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="30" t="b">
+      <c r="L17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="20">
         <v>45499</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O17" s="20">
         <v>45499</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="23">
         <v>2</v>
       </c>
-      <c r="Q17" s="32">
-        <v>5</v>
-      </c>
-      <c r="R17" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S17" s="30" t="b">
+      <c r="Q17" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S17" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T17" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U17" s="34">
+      <c r="T17" s="26">
+        <v>1</v>
+      </c>
+      <c r="U17" s="26">
         <v>0</v>
       </c>
       <c r="V17" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="36" t="str">
-        <f t="shared" si="6"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="28" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="38"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="30"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="11">
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="32"/>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G18" s="15">
@@ -2536,75 +2220,74 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28">
+      <c r="I18" s="19"/>
+      <c r="J18" s="20">
         <v>45499</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="20">
         <v>45499</v>
       </c>
-      <c r="L18" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="30" t="b">
+      <c r="L18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="20">
         <v>45499</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="20">
         <v>45499</v>
       </c>
-      <c r="P18" s="31">
+      <c r="P18" s="23">
         <v>2</v>
       </c>
-      <c r="Q18" s="32">
-        <v>5</v>
-      </c>
-      <c r="R18" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S18" s="30" t="b">
+      <c r="Q18" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S18" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U18" s="34">
+      <c r="T18" s="26">
+        <v>1</v>
+      </c>
+      <c r="U18" s="26">
         <v>0</v>
       </c>
       <c r="V18" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="36" t="str">
-        <f t="shared" si="6"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="28" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="38"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="30"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="11">
         <v>13</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G19" s="15">
@@ -2614,75 +2297,74 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28">
+      <c r="I19" s="19"/>
+      <c r="J19" s="20">
         <v>45499</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="20">
         <v>45499</v>
       </c>
-      <c r="L19" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" s="30" t="b">
+      <c r="L19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="20">
         <v>45499</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="20">
         <v>45499</v>
       </c>
-      <c r="P19" s="31">
+      <c r="P19" s="23">
         <v>2</v>
       </c>
-      <c r="Q19" s="32">
-        <v>5</v>
-      </c>
-      <c r="R19" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S19" s="30" t="b">
+      <c r="Q19" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S19" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T19" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U19" s="34">
+      <c r="T19" s="26">
+        <v>1</v>
+      </c>
+      <c r="U19" s="26">
         <v>0</v>
       </c>
       <c r="V19" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="36" t="str">
-        <f t="shared" si="6"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="28" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="38"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="30"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="11">
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G20" s="15">
@@ -2692,75 +2374,74 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28">
+      <c r="I20" s="19"/>
+      <c r="J20" s="20">
         <v>45499</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="20">
         <v>45499</v>
       </c>
-      <c r="L20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M20" s="30" t="b">
+      <c r="L20" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="20">
         <v>45499</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="20">
         <v>45499</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="23">
         <v>2</v>
       </c>
-      <c r="Q20" s="32">
-        <v>5</v>
-      </c>
-      <c r="R20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S20" s="30" t="b">
+      <c r="Q20" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S20" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T20" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U20" s="34">
+      <c r="T20" s="26">
+        <v>1</v>
+      </c>
+      <c r="U20" s="26">
         <v>0</v>
       </c>
       <c r="V20" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="36" t="str">
-        <f t="shared" si="6"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="28" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="38"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="30"/>
     </row>
     <row r="21" spans="1:27" ht="20.45" customHeight="1">
       <c r="A21" s="11">
         <v>15</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="31"/>
       <c r="E21" s="14">
         <v>1</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G21" s="15">
@@ -2770,75 +2451,74 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28">
+      <c r="I21" s="19"/>
+      <c r="J21" s="20">
         <v>45500</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="20">
         <v>45500</v>
       </c>
-      <c r="L21" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M21" s="30" t="b">
+      <c r="L21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="20">
         <v>45500</v>
       </c>
-      <c r="O21" s="28">
+      <c r="O21" s="20">
         <v>45500</v>
       </c>
-      <c r="P21" s="31">
+      <c r="P21" s="23">
         <v>2</v>
       </c>
-      <c r="Q21" s="32">
-        <v>5</v>
-      </c>
-      <c r="R21" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S21" s="30" t="b">
+      <c r="Q21" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S21" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T21" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U21" s="34">
+      <c r="T21" s="26">
+        <v>1</v>
+      </c>
+      <c r="U21" s="26">
         <v>0</v>
       </c>
       <c r="V21" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="36" t="str">
-        <f t="shared" si="6"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="28" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="38"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="30"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="11">
         <v>16</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="14">
         <v>1</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G22" s="15">
@@ -2848,75 +2528,74 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28">
+      <c r="I22" s="19"/>
+      <c r="J22" s="20">
         <v>45500</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="20">
         <v>45500</v>
       </c>
-      <c r="L22" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" s="30" t="b">
+      <c r="L22" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="20">
         <v>45500</v>
       </c>
-      <c r="O22" s="28">
+      <c r="O22" s="20">
         <v>45500</v>
       </c>
-      <c r="P22" s="31">
+      <c r="P22" s="23">
         <v>2</v>
       </c>
-      <c r="Q22" s="32">
-        <v>5</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S22" s="30" t="b">
+      <c r="Q22" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S22" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T22" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U22" s="34">
+      <c r="T22" s="26">
+        <v>1</v>
+      </c>
+      <c r="U22" s="26">
         <v>0</v>
       </c>
       <c r="V22" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="36" t="str">
-        <f t="shared" si="6"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="28" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="38"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="30"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="11">
         <v>17</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="14">
         <v>1</v>
       </c>
       <c r="F23" s="15">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G23" s="15">
@@ -2926,79 +2605,76 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28">
+      <c r="I23" s="19"/>
+      <c r="J23" s="20">
         <v>45500</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="20">
         <v>45500</v>
       </c>
-      <c r="L23" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" s="30" t="b">
+      <c r="L23" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="20">
         <v>45500</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="20">
         <v>45500</v>
       </c>
-      <c r="P23" s="31">
+      <c r="P23" s="23">
         <v>2</v>
       </c>
-      <c r="Q23" s="32">
-        <v>5</v>
-      </c>
-      <c r="R23" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S23" s="30" t="b">
+      <c r="Q23" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T23" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U23" s="34">
+      <c r="T23" s="26">
+        <v>1</v>
+      </c>
+      <c r="U23" s="26">
         <v>0</v>
       </c>
       <c r="V23" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="W23" s="34">
-        <v>1</v>
-      </c>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="36">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z23" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA23" s="38"/>
+      <c r="W23" s="26">
+        <v>1</v>
+      </c>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="30"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="11">
         <v>18</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="14">
         <v>1</v>
       </c>
       <c r="F24" s="15">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G24" s="15">
@@ -3008,62 +2684,60 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28">
+      <c r="I24" s="19"/>
+      <c r="J24" s="20">
         <v>45500</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="20">
         <v>45500</v>
       </c>
-      <c r="L24" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="30" t="b">
+      <c r="L24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N24" s="28">
+      <c r="N24" s="20">
         <v>45500</v>
       </c>
-      <c r="O24" s="28">
+      <c r="O24" s="20">
         <v>45500</v>
       </c>
-      <c r="P24" s="31">
+      <c r="P24" s="23">
         <v>2</v>
       </c>
-      <c r="Q24" s="32">
-        <v>5</v>
-      </c>
-      <c r="R24" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S24" s="30" t="b">
+      <c r="Q24" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="S24" s="22" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T24" s="34">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U24" s="33">
+      <c r="T24" s="25">
+        <v>1</v>
+      </c>
+      <c r="U24" s="25">
         <v>0</v>
       </c>
       <c r="V24" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="W24" s="33">
-        <v>1</v>
-      </c>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="36">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z24" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA24" s="38"/>
+      <c r="W24" s="25">
+        <v>1</v>
+      </c>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="30"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="1"/>
@@ -3094,7 +2768,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="15" thickBot="1">
+    <row r="26" spans="1:27">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3124,16 +2798,11 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="20">
-        <v>1</v>
-      </c>
-      <c r="E27" s="18"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -3158,15 +2827,11 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="45"/>
-      <c r="B28" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="22">
-        <f>COUNTIF($L$7:$L$24,"◎")</f>
-        <v>18</v>
-      </c>
-      <c r="E28" s="18"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -3191,15 +2856,11 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="45"/>
-      <c r="B29" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="22">
-        <f>COUNTIF($L$7:$L$24,"○")</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="18"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3224,15 +2885,11 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="45"/>
-      <c r="B30" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="22">
-        <f>COUNTIF(M7:M24,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="18"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -3257,15 +2914,11 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="45"/>
-      <c r="B31" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="22">
-        <f>COUNTIF($L$7:$L$24,"△")</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="18"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3290,14 +2943,11 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="45"/>
-      <c r="B32" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="24">
-        <v>1</v>
-      </c>
-      <c r="E32" s="18"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3322,15 +2972,11 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27">
-      <c r="A33" s="45"/>
-      <c r="B33" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="22">
-        <f>COUNTIF($R$7:$R$24,"◎")</f>
-        <v>18</v>
-      </c>
-      <c r="E33" s="18"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3355,15 +3001,11 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="45"/>
-      <c r="B34" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="22">
-        <f>COUNTIF($R$7:$R$24,"○")</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="18"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3388,15 +3030,11 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="45"/>
-      <c r="B35" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="22">
-        <f>COUNTIF(S7:S24,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="18"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3421,15 +3059,11 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="45"/>
-      <c r="B36" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="22">
-        <f>COUNTIF($R$7:$R$24,"△")</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="18"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -3453,16 +3087,12 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" ht="15" thickBot="1">
-      <c r="A37" s="46"/>
-      <c r="B37" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="26">
-        <f>E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22+E23+E24</f>
-        <v>24</v>
-      </c>
-      <c r="E37" s="18"/>
+    <row r="37" spans="1:27">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3486,7 +3116,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" ht="14.25" customHeight="1">
+    <row r="38" spans="1:27">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -7546,325 +7176,6 @@
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
     </row>
-    <row r="178" spans="1:27">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
-      <c r="S178" s="1"/>
-      <c r="T178" s="1"/>
-      <c r="U178" s="1"/>
-      <c r="V178" s="1"/>
-      <c r="W178" s="1"/>
-      <c r="X178" s="1"/>
-      <c r="Y178" s="1"/>
-      <c r="Z178" s="1"/>
-      <c r="AA178" s="1"/>
-    </row>
-    <row r="179" spans="1:27">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
-      <c r="S179" s="1"/>
-      <c r="T179" s="1"/>
-      <c r="U179" s="1"/>
-      <c r="V179" s="1"/>
-      <c r="W179" s="1"/>
-      <c r="X179" s="1"/>
-      <c r="Y179" s="1"/>
-      <c r="Z179" s="1"/>
-      <c r="AA179" s="1"/>
-    </row>
-    <row r="180" spans="1:27">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-      <c r="S180" s="1"/>
-      <c r="T180" s="1"/>
-      <c r="U180" s="1"/>
-      <c r="V180" s="1"/>
-      <c r="W180" s="1"/>
-      <c r="X180" s="1"/>
-      <c r="Y180" s="1"/>
-      <c r="Z180" s="1"/>
-      <c r="AA180" s="1"/>
-    </row>
-    <row r="181" spans="1:27">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-      <c r="S181" s="1"/>
-      <c r="T181" s="1"/>
-      <c r="U181" s="1"/>
-      <c r="V181" s="1"/>
-      <c r="W181" s="1"/>
-      <c r="X181" s="1"/>
-      <c r="Y181" s="1"/>
-      <c r="Z181" s="1"/>
-      <c r="AA181" s="1"/>
-    </row>
-    <row r="182" spans="1:27">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
-      <c r="Q182" s="1"/>
-      <c r="R182" s="1"/>
-      <c r="S182" s="1"/>
-      <c r="T182" s="1"/>
-      <c r="U182" s="1"/>
-      <c r="V182" s="1"/>
-      <c r="W182" s="1"/>
-      <c r="X182" s="1"/>
-      <c r="Y182" s="1"/>
-      <c r="Z182" s="1"/>
-      <c r="AA182" s="1"/>
-    </row>
-    <row r="183" spans="1:27">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
-      <c r="Q183" s="1"/>
-      <c r="R183" s="1"/>
-      <c r="S183" s="1"/>
-      <c r="T183" s="1"/>
-      <c r="U183" s="1"/>
-      <c r="V183" s="1"/>
-      <c r="W183" s="1"/>
-      <c r="X183" s="1"/>
-      <c r="Y183" s="1"/>
-      <c r="Z183" s="1"/>
-      <c r="AA183" s="1"/>
-    </row>
-    <row r="184" spans="1:27">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
-      <c r="S184" s="1"/>
-      <c r="T184" s="1"/>
-      <c r="U184" s="1"/>
-      <c r="V184" s="1"/>
-      <c r="W184" s="1"/>
-      <c r="X184" s="1"/>
-      <c r="Y184" s="1"/>
-      <c r="Z184" s="1"/>
-      <c r="AA184" s="1"/>
-    </row>
-    <row r="185" spans="1:27">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
-      <c r="R185" s="1"/>
-      <c r="S185" s="1"/>
-      <c r="T185" s="1"/>
-      <c r="U185" s="1"/>
-      <c r="V185" s="1"/>
-      <c r="W185" s="1"/>
-      <c r="X185" s="1"/>
-      <c r="Y185" s="1"/>
-      <c r="Z185" s="1"/>
-      <c r="AA185" s="1"/>
-    </row>
-    <row r="186" spans="1:27">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
-      <c r="R186" s="1"/>
-      <c r="S186" s="1"/>
-      <c r="T186" s="1"/>
-      <c r="U186" s="1"/>
-      <c r="V186" s="1"/>
-      <c r="W186" s="1"/>
-      <c r="X186" s="1"/>
-      <c r="Y186" s="1"/>
-      <c r="Z186" s="1"/>
-      <c r="AA186" s="1"/>
-    </row>
-    <row r="187" spans="1:27">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
-      <c r="Q187" s="1"/>
-      <c r="R187" s="1"/>
-      <c r="S187" s="1"/>
-      <c r="T187" s="1"/>
-      <c r="U187" s="1"/>
-      <c r="V187" s="1"/>
-      <c r="W187" s="1"/>
-      <c r="X187" s="1"/>
-      <c r="Y187" s="1"/>
-      <c r="Z187" s="1"/>
-      <c r="AA187" s="1"/>
-    </row>
-    <row r="188" spans="1:27">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
-      <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
-      <c r="Q188" s="1"/>
-      <c r="R188" s="1"/>
-      <c r="S188" s="1"/>
-      <c r="T188" s="1"/>
-      <c r="U188" s="1"/>
-      <c r="V188" s="1"/>
-      <c r="W188" s="1"/>
-      <c r="X188" s="1"/>
-      <c r="Y188" s="1"/>
-      <c r="Z188" s="1"/>
-      <c r="AA188" s="1"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <autoFilter ref="A6:Z24" xr:uid="{00000000-0009-0000-0000-000001000000}">
@@ -7872,7 +7183,17 @@
       <sortCondition ref="A6:A24"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="22">
+  <mergeCells count="21">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F4:H5"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="Z4:Z6"/>
     <mergeCell ref="J4:Y4"/>
@@ -7884,17 +7205,6 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7903,13 +7213,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="2" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -7921,11 +7224,14 @@
 </woProps>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="2" master=""/>
+</allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="3"/>
   <pixelatorList sheetStid="2"/>
@@ -7933,26 +7239,30 @@
 </pixelators>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>